--- a/biology/Médecine/Vesparax/Vesparax.xlsx
+++ b/biology/Médecine/Vesparax/Vesparax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,18 +490,19 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Vesparax est un médicament se présentant sous forme de comprimés et composé de trois principes actifs :
-brallobarbital (50 mg par comprimé)[1] ;
-sécobarbital (150 mg par comprimé)[1] ;
-hydroxyzine (50 mg par comprimé)[1].
+brallobarbital (50 mg par comprimé) ;
+sécobarbital (150 mg par comprimé) ;
+hydroxyzine (50 mg par comprimé).
 Les deux premières molécules sont des barbituriques et la troisième est un antihistaminique ayant également un effet anxiolytique.
-Le Vesperax est un médicament qui a été impliqué entre autres dans le décès de Jimi Hendrix en 1970[2]. Il est actuellement retiré du marché aux États-Unis[3]
+Le Vesperax est un médicament qui a été impliqué entre autres dans le décès de Jimi Hendrix en 1970. Il est actuellement retiré du marché aux États-Unis
 , en Belgique
-[4] 
 et aux Pays-Bas
-[5]. Comme pour les autres barbituriques, un surdosage peut être fatal, mais il est néanmoins apprécié des toxicomanes[4].
+. Comme pour les autres barbituriques, un surdosage peut être fatal, mais il est néanmoins apprécié des toxicomanes.
 </t>
         </is>
       </c>
